--- a/Statistical analyses/Tukey posthoc/NAG/Km, timePoint x Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/NAG/Km, timePoint x Vegetation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\NAG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D9892-AEE5-4955-B986-5A3F40B6F84E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11652" yWindow="3348" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Km" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +129,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,168 +504,168 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0.8552999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.001</v>
-      </c>
-      <c r="E2">
-        <v>0.4518</v>
-      </c>
-      <c r="F2">
-        <v>1.2588</v>
-      </c>
-      <c r="G2" t="b">
+      <c r="C2" s="2">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.45179999999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.2587999999999999</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.5086000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.0048</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="2">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.1051</v>
       </c>
-      <c r="F3">
-        <v>0.9121</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="F3" s="2">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>0.7567</v>
-      </c>
-      <c r="D4">
-        <v>0.001</v>
-      </c>
-      <c r="E4">
-        <v>0.3532</v>
-      </c>
-      <c r="F4">
-        <v>1.1602</v>
-      </c>
-      <c r="G4" t="b">
+      <c r="C4" s="2">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.1601999999999999</v>
+      </c>
+      <c r="G4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>0.6268</v>
-      </c>
-      <c r="D5">
-        <v>0.001</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="2">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.2233</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.0303</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>0.7557</v>
-      </c>
-      <c r="D6">
-        <v>0.001</v>
-      </c>
-      <c r="E6">
-        <v>0.3522</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="2">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="F6" s="2">
         <v>1.1592</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>0.4051</v>
-      </c>
-      <c r="D7">
-        <v>0.0484</v>
-      </c>
-      <c r="E7">
-        <v>0.0016</v>
-      </c>
-      <c r="F7">
-        <v>0.8086</v>
-      </c>
-      <c r="G7" t="b">
+      <c r="C7" s="2">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="G7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>0.6433</v>
-      </c>
-      <c r="D8">
-        <v>0.001</v>
-      </c>
-      <c r="E8">
-        <v>0.2398</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="2">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.0468</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -614,22 +673,22 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.3467</v>
+        <v>-0.34670000000000001</v>
       </c>
       <c r="D9">
         <v>0.1424</v>
       </c>
       <c r="E9">
-        <v>-0.7502</v>
+        <v>-0.75019999999999998</v>
       </c>
       <c r="F9">
-        <v>0.0568</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -637,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.09859999999999999</v>
+        <v>-9.8599999999999993E-2</v>
       </c>
       <c r="D10">
         <v>0.9</v>
       </c>
       <c r="E10">
-        <v>-0.5021</v>
+        <v>-0.50209999999999999</v>
       </c>
       <c r="F10">
         <v>0.3049</v>
@@ -652,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -660,22 +719,22 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.2285</v>
+        <v>-0.22850000000000001</v>
       </c>
       <c r="D11">
-        <v>0.617</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E11">
-        <v>-0.632</v>
+        <v>-0.63200000000000001</v>
       </c>
       <c r="F11">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -683,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-0.09959999999999999</v>
+        <v>-9.9599999999999994E-2</v>
       </c>
       <c r="D12">
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>-0.5031</v>
+        <v>-0.50309999999999999</v>
       </c>
       <c r="F12">
         <v>0.3039</v>
@@ -698,30 +757,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>-0.4502</v>
-      </c>
-      <c r="D13">
-        <v>0.0187</v>
-      </c>
-      <c r="E13">
-        <v>-0.8537</v>
-      </c>
-      <c r="F13">
-        <v>-0.0467</v>
-      </c>
-      <c r="G13" t="b">
+      <c r="C13" s="2">
+        <v>-0.45019999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.85370000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-4.6699999999999998E-2</v>
+      </c>
+      <c r="G13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -729,13 +788,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.212</v>
+        <v>-0.21199999999999999</v>
       </c>
       <c r="D14">
-        <v>0.6911</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="E14">
-        <v>-0.6155</v>
+        <v>-0.61550000000000005</v>
       </c>
       <c r="F14">
         <v>0.1915</v>
@@ -744,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -752,22 +811,22 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.2481</v>
+        <v>0.24809999999999999</v>
       </c>
       <c r="D15">
-        <v>0.5286999999999999</v>
+        <v>0.52869999999999995</v>
       </c>
       <c r="E15">
-        <v>-0.1554</v>
+        <v>-0.15540000000000001</v>
       </c>
       <c r="F15">
-        <v>0.6516</v>
+        <v>0.65159999999999996</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -784,13 +843,13 @@
         <v>-0.2853</v>
       </c>
       <c r="F16">
-        <v>0.5217000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -798,22 +857,22 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>0.2471</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="D17">
-        <v>0.5331</v>
+        <v>0.53310000000000002</v>
       </c>
       <c r="E17">
-        <v>-0.1564</v>
+        <v>-0.15640000000000001</v>
       </c>
       <c r="F17">
-        <v>0.6506</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -821,13 +880,13 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>-0.1035</v>
+        <v>-0.10349999999999999</v>
       </c>
       <c r="D18">
         <v>0.9</v>
       </c>
       <c r="E18">
-        <v>-0.507</v>
+        <v>-0.50700000000000001</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -836,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -844,22 +903,22 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>0.1347</v>
+        <v>0.13469999999999999</v>
       </c>
       <c r="D19">
         <v>0.9</v>
       </c>
       <c r="E19">
-        <v>-0.2688</v>
+        <v>-0.26879999999999998</v>
       </c>
       <c r="F19">
-        <v>0.5382</v>
+        <v>0.53820000000000001</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -867,22 +926,22 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>-0.1299</v>
+        <v>-0.12989999999999999</v>
       </c>
       <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20">
-        <v>-0.5334</v>
+        <v>-0.53339999999999999</v>
       </c>
       <c r="F20">
-        <v>0.2736</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -890,22 +949,22 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>-0.001</v>
+        <v>-1E-3</v>
       </c>
       <c r="D21">
         <v>0.9</v>
       </c>
       <c r="E21">
-        <v>-0.4045</v>
+        <v>-0.40450000000000003</v>
       </c>
       <c r="F21">
-        <v>0.4025</v>
+        <v>0.40250000000000002</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -913,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>-0.3516</v>
+        <v>-0.35160000000000002</v>
       </c>
       <c r="D22">
         <v>0.1308</v>
       </c>
       <c r="E22">
-        <v>-0.7551</v>
+        <v>-0.75509999999999999</v>
       </c>
       <c r="F22">
-        <v>0.0519</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -942,16 +1001,16 @@
         <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-0.5169</v>
+        <v>-0.51690000000000003</v>
       </c>
       <c r="F23">
-        <v>0.2901</v>
+        <v>0.29010000000000002</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -959,22 +1018,22 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>0.1289</v>
+        <v>0.12889999999999999</v>
       </c>
       <c r="D24">
         <v>0.9</v>
       </c>
       <c r="E24">
-        <v>-0.2746</v>
+        <v>-0.27460000000000001</v>
       </c>
       <c r="F24">
-        <v>0.5324</v>
+        <v>0.53239999999999998</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -982,22 +1041,22 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>-0.2217</v>
+        <v>-0.22170000000000001</v>
       </c>
       <c r="D25">
-        <v>0.6475</v>
+        <v>0.64749999999999996</v>
       </c>
       <c r="E25">
-        <v>-0.6252</v>
+        <v>-0.62519999999999998</v>
       </c>
       <c r="F25">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1005,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>0.0165</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="D26">
         <v>0.9</v>
       </c>
       <c r="E26">
-        <v>-0.387</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="F26">
         <v>0.42</v>
@@ -1020,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1028,22 +1087,22 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>-0.3506</v>
+        <v>-0.35060000000000002</v>
       </c>
       <c r="D27">
         <v>0.1331</v>
       </c>
       <c r="E27">
-        <v>-0.7541</v>
+        <v>-0.75409999999999999</v>
       </c>
       <c r="F27">
-        <v>0.0529</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1057,16 +1116,16 @@
         <v>0.9</v>
       </c>
       <c r="E28">
-        <v>-0.5159</v>
+        <v>-0.51590000000000003</v>
       </c>
       <c r="F28">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1077,13 +1136,13 @@
         <v>0.2382</v>
       </c>
       <c r="D29">
-        <v>0.5734</v>
+        <v>0.57340000000000002</v>
       </c>
       <c r="E29">
         <v>-0.1653</v>
       </c>
       <c r="F29">
-        <v>0.6417</v>
+        <v>0.64170000000000005</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
